--- a/medicine/Mort/Cimetière_national_de_fort_Gibson/Cimetière_national_de_fort_Gibson.xlsx
+++ b/medicine/Mort/Cimetière_national_de_fort_Gibson/Cimetière_national_de_fort_Gibson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Gibson</t>
+          <t>Cimetière_national_de_fort_Gibson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière nationale de fort Gibson est un cimetière national des États-Unis situé à l'intérieur de la ville de Fort Gibson, dans le comté de Muskogee, en Oklahoma. Il s'étend sur 48,3 acres (19,5 ha), et en 2008, il y avait 19 102 inhumations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Gibson</t>
+          <t>Cimetière_national_de_fort_Gibson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fort Gibson est créé en 1833, sur une parcelle de terrain au sein de la nation Cherokee. C'est à ce qui est considéré comme la fin de la piste des larmes. La vie de frontière est dure, la fièvre jaune est commune, et au moins trois cimetières sont créés entre 1833 et 1857, lorsque le fort est abandonné.
 En 1863, le fort est réactivé par le brigadier général James G. Blunt. En 1868, le cimetière national est créé sur une parcelle de 7 acre (2,8 ha) de terrain, et l'ensemble des inhumations des cimetières à proximité sont transférées. Cela inclut les restes de nombreux civils.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Gibson</t>
+          <t>Cimetière_national_de_fort_Gibson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Monuments notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Un cénotaphe pour le caporal John Haddo, récipiendaire de la médaille d'honneur pour son action dans le territoire du Montana pendant les guerres indiennes qui est enterré dans une fosse commune dans le cimetière national de Custer[1],[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un cénotaphe pour le caporal John Haddo, récipiendaire de la médaille d'honneur pour son action dans le territoire du Montana pendant les guerres indiennes qui est enterré dans une fosse commune dans le cimetière national de Custer,.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_national_de_fort_Gibson</t>
+          <t>Cimetière_national_de_fort_Gibson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Inhumations notables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Capitaine Sonuk Mikko (Billy Bowlegs), séminole qui a combattu pour l'Union lors de la guerre de Sécession
 Premier lieutenant Jack C. Montgomery, récipiendaire de la médaille d'honneur pour son action lors de la seconde guerre mondiale
